--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -46,24 +46,24 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -73,7 +73,7 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -85,9 +85,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -103,79 +100,82 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>free</t>
+    <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>special</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>relief</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -542,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -661,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8321917808219178</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8839285714285714</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8833333333333333</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.576271186440678</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5714285714285714</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5686274509803921</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5329457364341085</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C11">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D11">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7924528301886793</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4899328859060403</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
         <v>0.7878787878787878</v>
@@ -1161,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2888888888888889</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.253968253968254</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.765625</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2010723860589812</v>
+        <v>0.1742627345844504</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>0.75</v>
@@ -1311,13 +1311,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.09666666666666666</v>
+        <v>0.09</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.025</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E18">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="F18">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1131</v>
+        <v>3055</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,87 +1411,63 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01388888888888889</v>
+        <v>0.01218369259606373</v>
       </c>
       <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>0.26</v>
+      </c>
+      <c r="F19">
+        <v>0.74</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2108</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.725</v>
+      </c>
+      <c r="L19">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19">
-        <v>54</v>
-      </c>
-      <c r="E19">
-        <v>0.2</v>
-      </c>
-      <c r="F19">
-        <v>0.8</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3053</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L19">
-        <v>46</v>
-      </c>
-      <c r="M19">
-        <v>46</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.01172058134083451</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>0.29</v>
-      </c>
-      <c r="F20">
-        <v>0.71</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2108</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1503,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6676470588235294</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L21">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1529,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1555,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6135593220338983</v>
+        <v>0.6305084745762712</v>
       </c>
       <c r="L23">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M23">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1581,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1607,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1633,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5857740585774058</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1659,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1685,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.550561797752809</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1711,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.54</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1737,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.3972602739726027</v>
+        <v>0.390625</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1763,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.3461538461538461</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1789,33 +1765,59 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K32">
-        <v>0.0103643216080402</v>
-      </c>
-      <c r="L32">
+      <c r="K33">
+        <v>0.01037735849056604</v>
+      </c>
+      <c r="L33">
         <v>33</v>
       </c>
-      <c r="M32">
-        <v>50</v>
-      </c>
-      <c r="N32">
-        <v>0.66</v>
-      </c>
-      <c r="O32">
-        <v>0.34</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3151</v>
+      <c r="M33">
+        <v>54</v>
+      </c>
+      <c r="N33">
+        <v>0.61</v>
+      </c>
+      <c r="O33">
+        <v>0.39</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3147</v>
       </c>
     </row>
   </sheetData>
